--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44171.79874724231</v>
+        <v>57898.15688466048</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26530,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-91161.61477337088</v>
+        <v>-91161.61477337094</v>
       </c>
       <c r="F6" t="n">
         <v>41938.38522662911</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57898.15688466048</v>
+        <v>-99854.13871872226</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>12774971.24520352</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27752399.88113482</v>
+        <v>27050603.86942925</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1141800.44003184</v>
+        <v>1501108.013265834</v>
       </c>
     </row>
     <row r="11">
@@ -7999,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -8865,10 +8865,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10287,10 +10287,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10521,13 +10521,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11469,13 +11469,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22591,10 +22591,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22883,10 +22883,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>137.841438974359</v>
@@ -22910,7 +22910,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -23439,10 +23439,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>90.4687457914608</v>
@@ -23457,10 +23457,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
         <v>163.8605191622716</v>
@@ -23524,7 +23524,7 @@
         <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>113.4004983079896</v>
@@ -23831,10 +23831,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>80.29914934735042</v>
@@ -23855,10 +23855,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
         <v>165.0641745378389</v>
@@ -24150,10 +24150,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>90.4687457914608</v>
@@ -24466,13 +24466,13 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>113.4004983079896</v>
@@ -24481,16 +24481,16 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
         <v>193.8433399116564</v>
@@ -24542,10 +24542,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>80.29914934735042</v>
@@ -24569,7 +24569,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
         <v>165.0641745378389</v>
@@ -24721,13 +24721,13 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
         <v>193.8433399116564</v>
@@ -24879,10 +24879,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
         <v>163.8605191622716</v>
@@ -24940,7 +24940,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>135.370731907559</v>
@@ -24961,10 +24961,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
         <v>193.8433399116564</v>
@@ -25019,7 +25019,7 @@
         <v>87.25340171355576</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>80.29914934735042</v>
@@ -25043,7 +25043,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
         <v>165.0641745378389</v>
@@ -25113,13 +25113,13 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
         <v>163.8605191622716</v>
@@ -25253,10 +25253,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>80.29914934735042</v>
@@ -25280,7 +25280,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
         <v>165.0641745378389</v>
@@ -25414,7 +25414,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>135.370731907559</v>
@@ -25435,10 +25435,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
         <v>193.8433399116564</v>
@@ -25651,7 +25651,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>135.370731907559</v>
@@ -25675,7 +25675,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
         <v>193.8433399116564</v>
@@ -25888,7 +25888,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>135.370731907559</v>
@@ -25909,10 +25909,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25991,7 +25991,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
         <v>165.0641745378389</v>
@@ -26046,7 +26046,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
         <v>94.30397654773019</v>
@@ -26061,13 +26061,13 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
         <v>163.8605191622716</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-8.985807653516532e-12</v>
+        <v>39283.05799419161</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-8.985807653516532e-12</v>
+        <v>13677.63592012166</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>131588.8811802859</v>
+        <v>144150.7165185871</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>131588.8811802859</v>
+        <v>150050.5187273447</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>131588.8811802859</v>
+        <v>149900.5702349466</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>131588.8811802859</v>
+        <v>137039.1344615673</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>131588.8811802859</v>
+        <v>245158.8779032054</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>131588.8811802859</v>
+        <v>188372.3970400859</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>131588.8811802859</v>
+        <v>201363.9463784961</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>131588.8811802859</v>
+        <v>142788.9260768636</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>131588.8811802859</v>
+        <v>179715.0009861571</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>131588.8811802859</v>
+        <v>158467.2490898641</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>131588.8811802859</v>
+        <v>195784.829962669</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>9959.085125288017</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3467.569669890002</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45549.99733163744</v>
+        <v>48734.68798078423</v>
       </c>
       <c r="F2" t="n">
-        <v>45549.99733163744</v>
+        <v>50230.41248441291</v>
       </c>
       <c r="G2" t="n">
-        <v>45549.99733163744</v>
+        <v>50192.39737366408</v>
       </c>
       <c r="H2" t="n">
-        <v>45549.99733163744</v>
+        <v>46931.75168463834</v>
       </c>
       <c r="I2" t="n">
         <v>45549.99733163744</v>
       </c>
       <c r="J2" t="n">
-        <v>45549.99733163744</v>
+        <v>74342.39086702549</v>
       </c>
       <c r="K2" t="n">
-        <v>45549.99733163744</v>
+        <v>59945.81825384026</v>
       </c>
       <c r="L2" t="n">
-        <v>45549.99733163744</v>
+        <v>63239.45048047949</v>
       </c>
       <c r="M2" t="n">
-        <v>45549.99733163744</v>
+        <v>48389.44533358671</v>
       </c>
       <c r="N2" t="n">
-        <v>45549.99733163744</v>
+        <v>57750.9854514358</v>
       </c>
       <c r="O2" t="n">
-        <v>45549.99733163744</v>
+        <v>52364.23144955868</v>
       </c>
       <c r="P2" t="n">
-        <v>45549.99733163744</v>
+        <v>61825.02660041065</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>10512.36763224846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3660.212429328336</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3361.617907432721</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4940.438216818551</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4900.311155472567</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1458.51848372317</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30391.97095402073</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>15195.58875121408</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18672.20054599993</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>2997.195113168664</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>12878.82079312049</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7192.802680027969</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>17179.19756148281</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="E6" t="n">
-        <v>-91161.61477337094</v>
+        <v>-109157.1036126648</v>
       </c>
       <c r="F6" t="n">
-        <v>41938.38522662911</v>
+        <v>23942.89638733522</v>
       </c>
       <c r="G6" t="n">
-        <v>41938.38522662911</v>
+        <v>23942.89638733523</v>
       </c>
       <c r="H6" t="n">
-        <v>41938.38522662911</v>
+        <v>23942.89638733522</v>
       </c>
       <c r="I6" t="n">
-        <v>41938.38522662911</v>
+        <v>23942.89638733522</v>
       </c>
       <c r="J6" t="n">
-        <v>41938.38522662911</v>
+        <v>23942.89638733522</v>
       </c>
       <c r="K6" t="n">
-        <v>41938.38522662911</v>
+        <v>23942.89638733523</v>
       </c>
       <c r="L6" t="n">
-        <v>41938.38522662911</v>
+        <v>23942.89638733523</v>
       </c>
       <c r="M6" t="n">
-        <v>41938.38522662911</v>
+        <v>23942.89638733523</v>
       </c>
       <c r="N6" t="n">
-        <v>41938.38522662911</v>
+        <v>23942.89638733523</v>
       </c>
       <c r="O6" t="n">
-        <v>41938.38522662911</v>
+        <v>23942.89638733523</v>
       </c>
       <c r="P6" t="n">
-        <v>41938.38522662911</v>
+        <v>23942.89638733524</v>
       </c>
     </row>
   </sheetData>
